--- a/data/trans_dic/P15D$nada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 76,69</t>
+          <t>10,29; 69,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 29,44</t>
+          <t>5,54; 30,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,89</t>
+          <t>0,0; 27,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 40,23</t>
+          <t>9,04; 41,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,44 +750,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 42,86</t>
+          <t>8,56; 42,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,23</t>
+          <t>0,0; 25,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,49; 31,2</t>
+          <t>10,53; 30,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 45,14</t>
+          <t>5,81; 47,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 29,3</t>
+          <t>10,2; 28,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 15,9</t>
+          <t>2,05; 16,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,48; 31,22</t>
+          <t>12,46; 30,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,76</t>
+          <t>0,0; 57,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 26,32</t>
+          <t>2,99; 24,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 38,82</t>
+          <t>4,95; 38,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 56,15</t>
+          <t>6,91; 55,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,3</t>
+          <t>0,0; 45,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 38,42</t>
+          <t>3,85; 37,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 58,17</t>
+          <t>6,83; 58,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 35,43</t>
+          <t>9,63; 33,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,39</t>
+          <t>0,0; 36,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 23,77</t>
+          <t>5,17; 25,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 40,22</t>
+          <t>9,59; 41,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 37,18</t>
+          <t>12,31; 38,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 46,41</t>
+          <t>4,84; 44,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,03; 57,35</t>
+          <t>31,11; 57,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 40,13</t>
+          <t>4,21; 38,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 35,32</t>
+          <t>7,73; 34,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,6; 71,75</t>
+          <t>38,99; 72,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,86</t>
+          <t>0,0; 36,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,32; 41,5</t>
+          <t>15,13; 42,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 48,77</t>
+          <t>8,27; 47,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,2; 59,19</t>
+          <t>38,55; 59,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 27,69</t>
+          <t>4,36; 27,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,13; 32,47</t>
+          <t>14,16; 33,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 52,51</t>
+          <t>10,28; 52,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 24,26</t>
+          <t>2,88; 24,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 28,84</t>
+          <t>3,45; 30,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,0</t>
+          <t>0,0; 41,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,1; 80,91</t>
+          <t>18,89; 80,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,88</t>
+          <t>0,0; 36,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 21,72</t>
+          <t>2,64; 22,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 26,61</t>
+          <t>2,26; 27,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,89; 53,81</t>
+          <t>19,67; 54,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 20,87</t>
+          <t>3,93; 21,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 20,79</t>
+          <t>4,21; 21,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 24,48</t>
+          <t>2,83; 23,3</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,16</t>
+          <t>0,0; 67,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,67</t>
+          <t>0,0; 42,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,43</t>
+          <t>0,0; 54,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 37,77</t>
+          <t>4,73; 37,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,29 +1325,29 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,35</t>
+          <t>0,0; 39,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 25,58</t>
+          <t>2,97; 23,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,86</t>
+          <t>0,0; 35,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,39</t>
+          <t>0,0; 45,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,17; 72,39</t>
+          <t>10,19; 74,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,32; 65,0</t>
+          <t>27,33; 64,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,97; 47,47</t>
+          <t>15,76; 47,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,42; 56,6</t>
+          <t>23,14; 55,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,19; 61,17</t>
+          <t>8,15; 67,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,71; 48,62</t>
+          <t>16,96; 49,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 29,1</t>
+          <t>3,48; 27,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,23; 46,15</t>
+          <t>21,38; 47,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,3; 54,14</t>
+          <t>10,57; 53,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,84; 50,0</t>
+          <t>26,81; 51,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 30,7</t>
+          <t>10,71; 30,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,7; 44,98</t>
+          <t>24,55; 46,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,08; 53,49</t>
+          <t>16,99; 52,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,67; 43,38</t>
+          <t>19,57; 42,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,0; 39,25</t>
+          <t>7,63; 38,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,78</t>
+          <t>0,0; 17,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,39; 45,67</t>
+          <t>5,41; 44,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,49; 41,12</t>
+          <t>17,52; 40,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,12; 45,6</t>
+          <t>10,87; 48,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 30,73</t>
+          <t>8,37; 30,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,58; 44,22</t>
+          <t>16,66; 44,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,5; 37,82</t>
+          <t>21,87; 38,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,26; 36,98</t>
+          <t>12,29; 36,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 20,51</t>
+          <t>5,05; 20,34</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,94; 40,85</t>
+          <t>9,14; 40,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 30,98</t>
+          <t>3,74; 32,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,98; 29,27</t>
+          <t>2,95; 29,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,13; 31,37</t>
+          <t>0,64; 31,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,72</t>
+          <t>0,0; 19,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,49; 40,6</t>
+          <t>8,3; 42,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,84; 36,17</t>
+          <t>7,11; 36,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,96; 25,73</t>
+          <t>5,9; 26,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,22; 24,33</t>
+          <t>5,3; 24,2</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,41; 30,89</t>
+          <t>8,28; 30,72</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,25; 27,14</t>
+          <t>7,71; 26,53</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,19; 20,72</t>
+          <t>5,37; 20,61</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,72; 34,58</t>
+          <t>19,7; 36,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,97; 30,39</t>
+          <t>20,5; 30,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,67; 22,43</t>
+          <t>11,06; 22,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,79; 23,29</t>
+          <t>11,56; 23,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,6; 25,71</t>
+          <t>10,23; 24,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,94; 34,6</t>
+          <t>22,3; 34,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,54; 19,95</t>
+          <t>9,28; 20,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,12; 24,05</t>
+          <t>15,21; 24,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,71; 28,17</t>
+          <t>17,24; 28,3</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>22,87; 30,76</t>
+          <t>23,1; 30,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11,7; 19,02</t>
+          <t>11,93; 19,28</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,91</t>
+          <t>14,66; 22,03</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tuvo consecuencias el último accidente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5593</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6038</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6238</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2115</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5599</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11831</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3174</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11637</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>957; 6504</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2052; 11402</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5366</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2540; 11642</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2366; 11872</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7842</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3051; 8954</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>951; 7818</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6598; 18332</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1011; 8381</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7112; 17265</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3028</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3134</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6501</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5008</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4593</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6384</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8037</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7727</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12885</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4547</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>930; 7674</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>961; 7465</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1682; 13499</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4069</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1166; 11246</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1085; 9263</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3213; 11034</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6091</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3169; 15512</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3384; 14522</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7101; 22176</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23372</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4142</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22167</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7093</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5442</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45539</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5071</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10838</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>883; 8147</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16444; 30354</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>978; 8865</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1650; 7418</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4205</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15535; 28942</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5018</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4053; 11279</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1855; 10714</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35736; 54685</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1619; 10198</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6816; 15984</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4683</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2876</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4966</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9649</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8082</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3671</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1832; 9389</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>877; 7396</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1324; 11705</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9901</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1849; 7895</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5997</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>960; 8316</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>412; 4926</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5432; 15068</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1844; 10277</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3149; 15735</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1188; 9779</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4963</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1777</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4284</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3871</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1815</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>936; 7396</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1486</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 417</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5987</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>981; 7598</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4824</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3461</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3118</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13729</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8253</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9630</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11128</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4540</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8710</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5969</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>24857</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12794</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18340</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>906; 6635</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8294; 19578</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4449; 13382</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6025; 14542</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>864; 7136</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6008; 17423</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1268; 9894</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5773; 12714</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2061; 10370</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>17634; 33905</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6927; 19869</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13019; 24525</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9255</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19612</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5460</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3979</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16601</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6786</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8156</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>13235</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>36212</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>12246</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>9846</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4635; 14402</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12675; 27238</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2016; 10269</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7503</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>996; 8216</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>10452; 23920</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2978; 13235</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4194; 15438</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7615; 20340</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>27218; 47499</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6616; 19414</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4725; 19031</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>5960</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>5479</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3728</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6978</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>8581</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>9451</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>6075</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2413; 10715</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>899; 7731</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1021; 10171</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>167; 8051</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5232</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2100; 10832</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1901; 9736</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1688; 7602</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2828; 12905</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4086; 15151</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>4729; 16276</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2929; 11247</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>32687</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>71311</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>32388</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>33070</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>15712</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>71646</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>27103</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>41588</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>48399</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>142957</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>59491</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>74658</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>24250; 44542</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>58173; 87817</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>22072; 43968</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>23136; 47135</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>9594; 23310</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>56707; 86513</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>17651; 39101</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>32488; 52725</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>37386; 61372</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>124316; 166554</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>46506; 75176</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>60643; 91146</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>